--- a/biology/Médecine/Johann_Adam_Kulmus/Johann_Adam_Kulmus.xlsx
+++ b/biology/Médecine/Johann_Adam_Kulmus/Johann_Adam_Kulmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Adam Kulmus, 23 mars 1689 à Breslau - 30 mai 1745 à Danzig, est un anatomiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kulmus est élève de Herman Boerhaave et de Bernhard Friedrich Albinus à Leyde. Après un voyage d'étude aux Pays-Bas, il travaille comme médecin à Gdansk et professeur de médecine et de physique au lycée académique de Dantzig (de).
 Il est membre de la Leopoldina et de l'Académie royale des sciences de Prusse.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anatomische Tabellen, nebst dazu gehoerigen Anmerckungen und Kupffern … welche den Anfaengern der Anatomie zu bequemer Anleitung in dieser andern Aufflage verfasset hat Johann Adam Kulmus … Dantzig zu finden bey Cornelius von Beughem; gedruckt von Thomas Johann Schreiber … 1725.
 Tabulae anatomicae: in quibus corporis humani omniumque ejus partium structura &amp; usus brevissimè explicantur: accesserunt majoris perspicuitatis causa, annotationes et tabulae aeneae. Amstelaedami : Apud Janssonio-Waesbergios, 1732. (Tables anatomiques dans lesquelles on explique en peu de mots la structure et l'usage du corps humain, et de toutes ses parties)
